--- a/outputs-HGR-r202-archive/g__Peptoniphilus_A.xlsx
+++ b/outputs-HGR-r202-archive/g__Peptoniphilus_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,73 +617,73 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91631.fa</t>
+          <t>even_MAG-GUT91672.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3756288664596297</v>
+        <v>0.03890763632423413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09272749591124183</v>
+        <v>0.02456020336642423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1325613304161029</v>
+        <v>0.01541122026314278</v>
       </c>
       <c r="E5" t="n">
-        <v>3.432062913198947e-14</v>
+        <v>0.7766178630918236</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06628689890839885</v>
+        <v>0.01671533164333002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01070341967359014</v>
+        <v>0.00362664155158988</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3220919886310022</v>
+        <v>0.1241611037594553</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3756288664596297</v>
+        <v>0.7766178630918236</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>s__Peptoniphilus_A grossensis(reject)</t>
+          <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91672.fa</t>
+          <t>even_MAG-GUT91675.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03890763632423413</v>
+        <v>0.02719379536612329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02456020336642423</v>
+        <v>0.02567324946572268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01541122026314278</v>
+        <v>0.01311970694317922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7766178630918236</v>
+        <v>0.7832920238525526</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01671533164333002</v>
+        <v>0.01749702422244167</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00362664155158988</v>
+        <v>0.004286752515053433</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1241611037594553</v>
+        <v>0.1289374476349271</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7766178630918236</v>
+        <v>0.7832920238525526</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -691,47 +691,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91675.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.02719379536612329</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02567324946572268</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01311970694317922</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7832920238525526</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01749702422244167</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.004286752515053433</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1289374476349271</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.7832920238525526</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Peptoniphilus_A lacydonensis</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>s__Peptoniphilus_A lacydonensis</t>
         </is>
